--- a/Datasett_NO1_Cleaned_r4.xlsx
+++ b/Datasett_NO1_Cleaned_r4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Python_\TET4565\Market_Opt\courseProject_TET4565\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E723E3D-E3D7-4D3B-9041-C1316AC52049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4FBE9-61B1-4A2B-814C-78D39AF8E44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{B4C2A857-2B71-4656-B030-3EEE771D021B}"/>
   </bookViews>
@@ -16,9 +16,8 @@
     <sheet name="Producers" sheetId="1" r:id="rId1"/>
     <sheet name="Consumers" sheetId="2" r:id="rId2"/>
     <sheet name="Time_wind" sheetId="4" r:id="rId3"/>
-    <sheet name="Node" sheetId="5" r:id="rId4"/>
-    <sheet name="Capacity plots" sheetId="6" r:id="rId5"/>
-    <sheet name="Wind plots" sheetId="7" r:id="rId6"/>
+    <sheet name="Capacity plots" sheetId="6" r:id="rId4"/>
+    <sheet name="Wind plots" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,18 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
-  <si>
-    <t>zone</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>nodeID</t>
   </si>
   <si>
     <t>Producer</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>pmax</t>
@@ -65,12 +58,6 @@
   </si>
   <si>
     <t>marginal_cost</t>
-  </si>
-  <si>
-    <t>NO1</t>
-  </si>
-  <si>
-    <t>NO1_1</t>
   </si>
   <si>
     <t>Producer 1</t>
@@ -106,21 +93,6 @@
     <t>Solar is given as a ratio of p_max</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>POINT (10.504074166666667 59.93336366666667)</t>
-  </si>
-  <si>
-    <t>POINT (8.541870000000003 60.36932575)</t>
-  </si>
-  <si>
     <t>load_ratio_NO1</t>
   </si>
   <si>
@@ -149,6 +121,9 @@
   </si>
   <si>
     <t>stochastic_period</t>
+  </si>
+  <si>
+    <t>gen_source</t>
   </si>
 </sst>
 </file>
@@ -426,7 +401,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Producers!$C$2:$D$3</c:f>
+              <c:f>Producers!$B$2:$C$3</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -450,7 +425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Producers!$G$2:$G$3</c:f>
+              <c:f>Producers!$F$2:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -793,7 +768,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Producers!$C$2:$D$3</c:f>
+              <c:f>Producers!$B$2:$C$3</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -817,7 +792,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Producers!$E$2:$E$3</c:f>
+              <c:f>Producers!$D$2:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -825,7 +800,7 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,7 +1142,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Consumers!$C$2:$C$2</c:f>
+              <c:f>Consumers!$B$2:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1178,7 +1153,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Consumers!$D$2:$D$2</c:f>
+              <c:f>Consumers!$C$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5812,33 +5787,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E9EE697-7171-461B-B4AE-5D22B484A732}" name="Tabell1" displayName="Tabell1" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{3E9EE697-7171-461B-B4AE-5D22B484A732}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
-    <sortCondition ref="A1:A3"/>
-  </sortState>
-  <tableColumns count="8">
-    <tableColumn id="49" xr3:uid="{34CF631A-9A90-45B4-8144-3CF89B1D2F66}" name="zone"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E9EE697-7171-461B-B4AE-5D22B484A732}" name="Tabell1" displayName="Tabell1" ref="A1:G3" totalsRowShown="0">
+  <autoFilter ref="A1:G3" xr:uid="{3E9EE697-7171-461B-B4AE-5D22B484A732}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1302BD03-72A8-45E6-B9A9-CE676D90EC2D}" name="nodeID"/>
     <tableColumn id="50" xr3:uid="{55BE9D26-3E25-43A9-8FF1-476E4EB7965D}" name="Producer"/>
-    <tableColumn id="3" xr3:uid="{8444EE8E-7A06-4133-919C-4ABA42D700BC}" name="type"/>
+    <tableColumn id="3" xr3:uid="{8444EE8E-7A06-4133-919C-4ABA42D700BC}" name="gen_source"/>
     <tableColumn id="4" xr3:uid="{BDBA4CA8-EBF7-479E-B8AA-C95B8A5FA16E}" name="pmax"/>
     <tableColumn id="5" xr3:uid="{5D34091F-B32A-4795-955C-77C8902D0F52}" name="pmin"/>
     <tableColumn id="9" xr3:uid="{E8D8CD75-D115-4F85-905F-F2B97AD07C33}" name="storage_cap"/>
     <tableColumn id="51" xr3:uid="{4A90CDCF-0532-4320-862E-CC75E0954730}" name="marginal_cost"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A615A296-F432-4AEC-A1A6-C0550A611E9C}" name="Tabell2" displayName="Tabell2" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{A615A296-F432-4AEC-A1A6-C0550A611E9C}"/>
-  <tableColumns count="4">
-    <tableColumn id="8" xr3:uid="{97A58C94-334E-4BA4-89D8-06D2C700378F}" name="zone"/>
-    <tableColumn id="3" xr3:uid="{99FFE39B-0E19-484C-B187-E99AFBC57925}" name="lat"/>
-    <tableColumn id="4" xr3:uid="{E5A3C795-4DC5-4FEA-95DB-3789DB4B71C5}" name="lon"/>
-    <tableColumn id="6" xr3:uid="{180ED354-E10F-4F6D-88BF-4495FFA84D9A}" name="geometry"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6161,21 +6119,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3BC556-4B49-433A-9C94-44C83F0F0C97}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="1" max="2" width="12" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6183,73 +6141,64 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D2">
+        <v>600</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>3000000</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>600</v>
-      </c>
-      <c r="F2">
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
         <v>0</v>
-      </c>
-      <c r="G2">
-        <v>3000000</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>5000</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
         <v>15</v>
       </c>
     </row>
@@ -6265,52 +6214,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99BD121-BB6F-4671-B41E-8643AE3BC083}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="10">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10">
         <v>600</v>
       </c>
-      <c r="E2" s="8">
+      <c r="D2" s="8">
         <v>300</v>
       </c>
     </row>
@@ -6325,7 +6267,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6337,19 +6279,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -6607,69 +6549,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711AFA22-C8D0-46E8-9CBB-648964707B34}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="62.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>59.933363666666601</v>
-      </c>
-      <c r="C2">
-        <v>10.5040741666666</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>60.369325750000002</v>
-      </c>
-      <c r="C3">
-        <v>8.5418699999999994</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34FC5AB-5539-4351-917E-50604F8C0C76}">
   <dimension ref="A1:C73"/>
   <sheetViews>
@@ -6687,13 +6566,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6704,7 +6583,7 @@
         <v>0.54780393804045202</v>
       </c>
       <c r="C2">
-        <f>B2*Consumers!$D$2</f>
+        <f>B2*Consumers!$C$2</f>
         <v>328.68236282427119</v>
       </c>
     </row>
@@ -6716,7 +6595,7 @@
         <v>0.53363441354610297</v>
       </c>
       <c r="C3">
-        <f>B3*Consumers!$D$2</f>
+        <f>B3*Consumers!$C$2</f>
         <v>320.18064812766175</v>
       </c>
     </row>
@@ -6728,7 +6607,7 @@
         <v>0.51845278015929996</v>
       </c>
       <c r="C4">
-        <f>B4*Consumers!$D$2</f>
+        <f>B4*Consumers!$C$2</f>
         <v>311.07166809557998</v>
       </c>
     </row>
@@ -6740,7 +6619,7 @@
         <v>0.52123607961354701</v>
       </c>
       <c r="C5">
-        <f>B5*Consumers!$D$2</f>
+        <f>B5*Consumers!$C$2</f>
         <v>312.74164776812819</v>
       </c>
     </row>
@@ -6752,7 +6631,7 @@
         <v>0.53844193078525704</v>
       </c>
       <c r="C6">
-        <f>B6*Consumers!$D$2</f>
+        <f>B6*Consumers!$C$2</f>
         <v>323.06515847115423</v>
       </c>
     </row>
@@ -6764,7 +6643,7 @@
         <v>0.56323859865036696</v>
       </c>
       <c r="C7">
-        <f>B7*Consumers!$D$2</f>
+        <f>B7*Consumers!$C$2</f>
         <v>337.94315919022017</v>
       </c>
     </row>
@@ -6776,7 +6655,7 @@
         <v>0.594360947093312</v>
       </c>
       <c r="C8">
-        <f>B8*Consumers!$D$2</f>
+        <f>B8*Consumers!$C$2</f>
         <v>356.6165682559872</v>
       </c>
     </row>
@@ -6788,7 +6667,7 @@
         <v>0.64496639171598702</v>
       </c>
       <c r="C9">
-        <f>B9*Consumers!$D$2</f>
+        <f>B9*Consumers!$C$2</f>
         <v>386.97983502959221</v>
       </c>
     </row>
@@ -6800,7 +6679,7 @@
         <v>0.67457057682025101</v>
       </c>
       <c r="C10">
-        <f>B10*Consumers!$D$2</f>
+        <f>B10*Consumers!$C$2</f>
         <v>404.74234609215063</v>
       </c>
     </row>
@@ -6812,7 +6691,7 @@
         <v>0.68975221020705402</v>
       </c>
       <c r="C11">
-        <f>B11*Consumers!$D$2</f>
+        <f>B11*Consumers!$C$2</f>
         <v>413.8513261242324</v>
       </c>
     </row>
@@ -6824,7 +6703,7 @@
         <v>0.69127037354573395</v>
       </c>
       <c r="C12">
-        <f>B12*Consumers!$D$2</f>
+        <f>B12*Consumers!$C$2</f>
         <v>414.76222412744039</v>
       </c>
     </row>
@@ -6836,7 +6715,7 @@
         <v>0.68114928462119895</v>
       </c>
       <c r="C13">
-        <f>B13*Consumers!$D$2</f>
+        <f>B13*Consumers!$C$2</f>
         <v>408.68957077271938</v>
       </c>
     </row>
@@ -6848,7 +6727,7 @@
         <v>0.68216139351365301</v>
       </c>
       <c r="C14">
-        <f>B14*Consumers!$D$2</f>
+        <f>B14*Consumers!$C$2</f>
         <v>409.29683610819183</v>
       </c>
     </row>
@@ -6860,7 +6739,7 @@
         <v>0.68039020295185904</v>
       </c>
       <c r="C15">
-        <f>B15*Consumers!$D$2</f>
+        <f>B15*Consumers!$C$2</f>
         <v>408.23412177111544</v>
       </c>
     </row>
@@ -6872,7 +6751,7 @@
         <v>0.70594595248630998</v>
       </c>
       <c r="C16">
-        <f>B16*Consumers!$D$2</f>
+        <f>B16*Consumers!$C$2</f>
         <v>423.567571491786</v>
       </c>
     </row>
@@ -6884,7 +6763,7 @@
         <v>0.69228248243818702</v>
       </c>
       <c r="C17">
-        <f>B17*Consumers!$D$2</f>
+        <f>B17*Consumers!$C$2</f>
         <v>415.36948946291221</v>
       </c>
     </row>
@@ -6896,7 +6775,7 @@
         <v>0.69582486356177498</v>
       </c>
       <c r="C18">
-        <f>B18*Consumers!$D$2</f>
+        <f>B18*Consumers!$C$2</f>
         <v>417.49491813706499</v>
       </c>
     </row>
@@ -6908,7 +6787,7 @@
         <v>0.69607789078488802</v>
       </c>
       <c r="C19">
-        <f>B19*Consumers!$D$2</f>
+        <f>B19*Consumers!$C$2</f>
         <v>417.64673447093281</v>
       </c>
     </row>
@@ -6920,7 +6799,7 @@
         <v>0.70493384359385602</v>
       </c>
       <c r="C20">
-        <f>B20*Consumers!$D$2</f>
+        <f>B20*Consumers!$C$2</f>
         <v>422.96030615631361</v>
       </c>
     </row>
@@ -6932,7 +6811,7 @@
         <v>0.707970170271217</v>
       </c>
       <c r="C21">
-        <f>B21*Consumers!$D$2</f>
+        <f>B21*Consumers!$C$2</f>
         <v>424.78210216273021</v>
       </c>
     </row>
@@ -6944,7 +6823,7 @@
         <v>0.69430670022309404</v>
       </c>
       <c r="C22">
-        <f>B22*Consumers!$D$2</f>
+        <f>B22*Consumers!$C$2</f>
         <v>416.58402013385643</v>
       </c>
     </row>
@@ -6956,7 +6835,7 @@
         <v>0.66672673290373696</v>
       </c>
       <c r="C23">
-        <f>B23*Consumers!$D$2</f>
+        <f>B23*Consumers!$C$2</f>
         <v>400.03603974224217</v>
       </c>
     </row>
@@ -6968,7 +6847,7 @@
         <v>0.61055468937256796</v>
       </c>
       <c r="C24">
-        <f>B24*Consumers!$D$2</f>
+        <f>B24*Consumers!$C$2</f>
         <v>366.3328136235408</v>
       </c>
     </row>
@@ -6980,7 +6859,7 @@
         <v>0.56500978921216105</v>
       </c>
       <c r="C25">
-        <f>B25*Consumers!$D$2</f>
+        <f>B25*Consumers!$C$2</f>
         <v>339.00587352729661</v>
       </c>
     </row>
@@ -6992,7 +6871,7 @@
         <v>0.547044856371111</v>
       </c>
       <c r="C26">
-        <f>B26*Consumers!$D$2</f>
+        <f>B26*Consumers!$C$2</f>
         <v>328.22691382266657</v>
       </c>
     </row>
@@ -7004,7 +6883,7 @@
         <v>0.53414046799232995</v>
       </c>
       <c r="C27">
-        <f>B27*Consumers!$D$2</f>
+        <f>B27*Consumers!$C$2</f>
         <v>320.48428079539798</v>
       </c>
     </row>
@@ -7016,7 +6895,7 @@
         <v>0.51769369848996005</v>
       </c>
       <c r="C28">
-        <f>B28*Consumers!$D$2</f>
+        <f>B28*Consumers!$C$2</f>
         <v>310.61621909397604</v>
       </c>
     </row>
@@ -7028,7 +6907,7 @@
         <v>0.53844193078525704</v>
       </c>
       <c r="C29">
-        <f>B29*Consumers!$D$2</f>
+        <f>B29*Consumers!$C$2</f>
         <v>323.06515847115423</v>
       </c>
     </row>
@@ -7040,7 +6919,7 @@
         <v>0.61435009771926896</v>
       </c>
       <c r="C30">
-        <f>B30*Consumers!$D$2</f>
+        <f>B30*Consumers!$C$2</f>
         <v>368.6100586315614</v>
       </c>
     </row>
@@ -7052,7 +6931,7 @@
         <v>0.72669418478160597</v>
       </c>
       <c r="C31">
-        <f>B31*Consumers!$D$2</f>
+        <f>B31*Consumers!$C$2</f>
         <v>436.01651086896356</v>
       </c>
     </row>
@@ -7064,7 +6943,7 @@
         <v>0.77856476551984799</v>
       </c>
       <c r="C32">
-        <f>B32*Consumers!$D$2</f>
+        <f>B32*Consumers!$C$2</f>
         <v>467.13885931190879</v>
       </c>
     </row>
@@ -7076,7 +6955,7 @@
         <v>0.79146915389863004</v>
       </c>
       <c r="C33">
-        <f>B33*Consumers!$D$2</f>
+        <f>B33*Consumers!$C$2</f>
         <v>474.88149233917801</v>
       </c>
     </row>
@@ -7088,7 +6967,7 @@
         <v>0.79830088892269102</v>
       </c>
       <c r="C34">
-        <f>B34*Consumers!$D$2</f>
+        <f>B34*Consumers!$C$2</f>
         <v>478.98053335361459</v>
       </c>
     </row>
@@ -7100,7 +6979,7 @@
         <v>0.792481262791083</v>
       </c>
       <c r="C35">
-        <f>B35*Consumers!$D$2</f>
+        <f>B35*Consumers!$C$2</f>
         <v>475.48875767464978</v>
       </c>
     </row>
@@ -7112,7 +6991,7 @@
         <v>0.80184327004627798</v>
       </c>
       <c r="C36">
-        <f>B36*Consumers!$D$2</f>
+        <f>B36*Consumers!$C$2</f>
         <v>481.10596202776679</v>
       </c>
     </row>
@@ -7124,7 +7003,7 @@
         <v>0.79222823556796995</v>
       </c>
       <c r="C37">
-        <f>B37*Consumers!$D$2</f>
+        <f>B37*Consumers!$C$2</f>
         <v>475.33694134078195</v>
       </c>
     </row>
@@ -7136,7 +7015,7 @@
         <v>0.78969796333683595</v>
       </c>
       <c r="C38">
-        <f>B38*Consumers!$D$2</f>
+        <f>B38*Consumers!$C$2</f>
         <v>473.81877800210157</v>
       </c>
     </row>
@@ -7148,7 +7027,7 @@
         <v>0.78590255499013595</v>
       </c>
       <c r="C39">
-        <f>B39*Consumers!$D$2</f>
+        <f>B39*Consumers!$C$2</f>
         <v>471.54153299408159</v>
       </c>
     </row>
@@ -7160,7 +7039,7 @@
         <v>0.79045704500617597</v>
       </c>
       <c r="C40">
-        <f>B40*Consumers!$D$2</f>
+        <f>B40*Consumers!$C$2</f>
         <v>474.27422700370556</v>
       </c>
     </row>
@@ -7172,7 +7051,7 @@
         <v>0.77502238439626003</v>
       </c>
       <c r="C41">
-        <f>B41*Consumers!$D$2</f>
+        <f>B41*Consumers!$C$2</f>
         <v>465.01343063775602</v>
       </c>
     </row>
@@ -7184,7 +7063,7 @@
         <v>0.76211799601747798</v>
       </c>
       <c r="C42">
-        <f>B42*Consumers!$D$2</f>
+        <f>B42*Consumers!$C$2</f>
         <v>457.2707976104868</v>
       </c>
     </row>
@@ -7196,7 +7075,7 @@
         <v>0.76135891434813796</v>
       </c>
       <c r="C43">
-        <f>B43*Consumers!$D$2</f>
+        <f>B43*Consumers!$C$2</f>
         <v>456.8153486088828</v>
       </c>
     </row>
@@ -7208,7 +7087,7 @@
         <v>0.76059983267879805</v>
       </c>
       <c r="C44">
-        <f>B44*Consumers!$D$2</f>
+        <f>B44*Consumers!$C$2</f>
         <v>456.35989960727881</v>
       </c>
     </row>
@@ -7220,7 +7099,7 @@
         <v>0.74238187261463495</v>
       </c>
       <c r="C45">
-        <f>B45*Consumers!$D$2</f>
+        <f>B45*Consumers!$C$2</f>
         <v>445.42912356878099</v>
       </c>
     </row>
@@ -7232,7 +7111,7 @@
         <v>0.72593510311226594</v>
       </c>
       <c r="C46">
-        <f>B46*Consumers!$D$2</f>
+        <f>B46*Consumers!$C$2</f>
         <v>435.56106186735957</v>
       </c>
     </row>
@@ -7244,7 +7123,7 @@
         <v>0.68393258407544599</v>
       </c>
       <c r="C47">
-        <f>B47*Consumers!$D$2</f>
+        <f>B47*Consumers!$C$2</f>
         <v>410.35955044526759</v>
       </c>
     </row>
@@ -7256,7 +7135,7 @@
         <v>0.62194091441266997</v>
       </c>
       <c r="C48">
-        <f>B48*Consumers!$D$2</f>
+        <f>B48*Consumers!$C$2</f>
         <v>373.16454864760198</v>
       </c>
     </row>
@@ -7268,7 +7147,7 @@
         <v>0.58069747704519004</v>
       </c>
       <c r="C49">
-        <f>B49*Consumers!$D$2</f>
+        <f>B49*Consumers!$C$2</f>
         <v>348.41848622711404</v>
       </c>
     </row>
@@ -7280,7 +7159,7 @@
         <v>0.55944319030366696</v>
       </c>
       <c r="C50" s="3">
-        <f>B50*Consumers!$D$2</f>
+        <f>B50*Consumers!$C$2</f>
         <v>335.6659141822002</v>
       </c>
     </row>
@@ -7292,7 +7171,7 @@
         <v>0.55412961861828602</v>
       </c>
       <c r="C51" s="3">
-        <f>B51*Consumers!$D$2</f>
+        <f>B51*Consumers!$C$2</f>
         <v>332.47777117097161</v>
       </c>
     </row>
@@ -7304,7 +7183,7 @@
         <v>0.54299642080129795</v>
       </c>
       <c r="C52" s="3">
-        <f>B52*Consumers!$D$2</f>
+        <f>B52*Consumers!$C$2</f>
         <v>325.79785248077877</v>
       </c>
     </row>
@@ -7316,7 +7195,7 @@
         <v>0.56273254420414098</v>
       </c>
       <c r="C53" s="3">
-        <f>B53*Consumers!$D$2</f>
+        <f>B53*Consumers!$C$2</f>
         <v>337.63952652248457</v>
       </c>
     </row>
@@ -7328,7 +7207,7 @@
         <v>0.64699060950089404</v>
       </c>
       <c r="C54" s="3">
-        <f>B54*Consumers!$D$2</f>
+        <f>B54*Consumers!$C$2</f>
         <v>388.19436570053642</v>
       </c>
     </row>
@@ -7340,7 +7219,7 @@
         <v>0.76287707768681801</v>
       </c>
       <c r="C55" s="3">
-        <f>B55*Consumers!$D$2</f>
+        <f>B55*Consumers!$C$2</f>
         <v>457.72624661209079</v>
       </c>
     </row>
@@ -7352,7 +7231,7 @@
         <v>0.81069922285524598</v>
       </c>
       <c r="C56" s="3">
-        <f>B56*Consumers!$D$2</f>
+        <f>B56*Consumers!$C$2</f>
         <v>486.41953371314759</v>
       </c>
     </row>
@@ -7364,7 +7243,7 @@
         <v>0.82739901958072803</v>
       </c>
       <c r="C57" s="3">
-        <f>B57*Consumers!$D$2</f>
+        <f>B57*Consumers!$C$2</f>
         <v>496.43941174843684</v>
       </c>
     </row>
@@ -7376,7 +7255,7 @@
         <v>0.81095225007835903</v>
       </c>
       <c r="C58" s="3">
-        <f>B58*Consumers!$D$2</f>
+        <f>B58*Consumers!$C$2</f>
         <v>486.57135004701541</v>
       </c>
     </row>
@@ -7388,7 +7267,7 @@
         <v>0.810193168409019</v>
       </c>
       <c r="C59" s="3">
-        <f>B59*Consumers!$D$2</f>
+        <f>B59*Consumers!$C$2</f>
         <v>486.11590104541142</v>
       </c>
     </row>
@@ -7400,7 +7279,7 @@
         <v>0.80994014118590596</v>
       </c>
       <c r="C60" s="3">
-        <f>B60*Consumers!$D$2</f>
+        <f>B60*Consumers!$C$2</f>
         <v>485.96408471154359</v>
       </c>
     </row>
@@ -7412,7 +7291,7 @@
         <v>0.80538565116986505</v>
       </c>
       <c r="C61" s="3">
-        <f>B61*Consumers!$D$2</f>
+        <f>B61*Consumers!$C$2</f>
         <v>483.23139070191905</v>
       </c>
     </row>
@@ -7424,7 +7303,7 @@
         <v>0.807662896177885</v>
       </c>
       <c r="C62" s="3">
-        <f>B62*Consumers!$D$2</f>
+        <f>B62*Consumers!$C$2</f>
         <v>484.59773770673098</v>
       </c>
     </row>
@@ -7436,7 +7315,7 @@
         <v>0.81500068564817296</v>
       </c>
       <c r="C63" s="3">
-        <f>B63*Consumers!$D$2</f>
+        <f>B63*Consumers!$C$2</f>
         <v>489.00041138890379</v>
       </c>
     </row>
@@ -7448,7 +7327,7 @@
         <v>0.81575976731751298</v>
       </c>
       <c r="C64" s="3">
-        <f>B64*Consumers!$D$2</f>
+        <f>B64*Consumers!$C$2</f>
         <v>489.45586039050778</v>
       </c>
     </row>
@@ -7460,7 +7339,7 @@
         <v>0.80159024282316405</v>
       </c>
       <c r="C65" s="3">
-        <f>B65*Consumers!$D$2</f>
+        <f>B65*Consumers!$C$2</f>
         <v>480.95414569389845</v>
       </c>
     </row>
@@ -7472,7 +7351,7 @@
         <v>0.78210714664343495</v>
       </c>
       <c r="C66" s="3">
-        <f>B66*Consumers!$D$2</f>
+        <f>B66*Consumers!$C$2</f>
         <v>469.26428798606099</v>
       </c>
     </row>
@@ -7484,7 +7363,7 @@
         <v>0.77223908494201299</v>
       </c>
       <c r="C67" s="3">
-        <f>B67*Consumers!$D$2</f>
+        <f>B67*Consumers!$C$2</f>
         <v>463.34345096520781</v>
       </c>
     </row>
@@ -7496,7 +7375,7 @@
         <v>0.76743156770285903</v>
       </c>
       <c r="C68" s="3">
-        <f>B68*Consumers!$D$2</f>
+        <f>B68*Consumers!$C$2</f>
         <v>460.45894062171544</v>
       </c>
     </row>
@@ -7508,7 +7387,7 @@
         <v>0.75224993431605702</v>
       </c>
       <c r="C69" s="3">
-        <f>B69*Consumers!$D$2</f>
+        <f>B69*Consumers!$C$2</f>
         <v>451.34996058963424</v>
       </c>
     </row>
@@ -7520,7 +7399,7 @@
         <v>0.72821234812028601</v>
       </c>
       <c r="C70" s="3">
-        <f>B70*Consumers!$D$2</f>
+        <f>B70*Consumers!$C$2</f>
         <v>436.92740887217161</v>
       </c>
     </row>
@@ -7532,7 +7411,7 @@
         <v>0.68519772019101299</v>
       </c>
       <c r="C71" s="3">
-        <f>B71*Consumers!$D$2</f>
+        <f>B71*Consumers!$C$2</f>
         <v>411.11863211460781</v>
       </c>
     </row>
@@ -7544,7 +7423,7 @@
         <v>0.62118183274333005</v>
       </c>
       <c r="C72" s="3">
-        <f>B72*Consumers!$D$2</f>
+        <f>B72*Consumers!$C$2</f>
         <v>372.70909964599804</v>
       </c>
     </row>
@@ -7556,7 +7435,7 @@
         <v>0.57766115036782995</v>
       </c>
       <c r="C73" s="3">
-        <f>B73*Consumers!$D$2</f>
+        <f>B73*Consumers!$C$2</f>
         <v>346.59669022069795</v>
       </c>
     </row>
@@ -7567,7 +7446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B3374B-9D00-43F9-83F1-CD003AA79F18}">
   <dimension ref="A1:G74"/>
   <sheetViews>
@@ -7583,19 +7462,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -7633,7 +7512,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -7653,7 +7532,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -7673,7 +7552,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -8424,7 +8303,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -8444,7 +8323,7 @@
         <v>5.5E-2</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
